--- a/Ijara_Karthi2/TestData/ijaraTestData.xlsx
+++ b/Ijara_Karthi2/TestData/ijaraTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Admin@1</t>
   </si>
   <si>
-    <t>0377</t>
-  </si>
-  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>DataSetID</t>
   </si>
   <si>
-    <t>Aravind</t>
-  </si>
-  <si>
     <t>ClientName</t>
   </si>
   <si>
@@ -61,19 +55,47 @@
   </si>
   <si>
     <t>Asset</t>
+  </si>
+  <si>
+    <t>NeagtiveAmount</t>
+  </si>
+  <si>
+    <t>stringAmount</t>
+  </si>
+  <si>
+    <t>specialCharAmount</t>
+  </si>
+  <si>
+    <t>!@#$%</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>karthikeyan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -132,10 +154,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -144,8 +170,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,7 +470,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -562,10 +591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,27 +603,36 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="7"/>
@@ -603,293 +641,735 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:21">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5">
         <v>100</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="6:21">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="6:21">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Ijara_Karthi2/TestData/ijaraTestData.xlsx
+++ b/Ijara_Karthi2/TestData/ijaraTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Living_Expense" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="InsuranceInfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>UserName</t>
   </si>
@@ -76,6 +76,48 @@
   </si>
   <si>
     <t>karthikeyan</t>
+  </si>
+  <si>
+    <t>AT_INS_001</t>
+  </si>
+  <si>
+    <t>AT_INS_001_D1</t>
+  </si>
+  <si>
+    <t>insuranceQuotationId</t>
+  </si>
+  <si>
+    <t>insuranceYear</t>
+  </si>
+  <si>
+    <t>depriciation</t>
+  </si>
+  <si>
+    <t>AssetPrice</t>
+  </si>
+  <si>
+    <t>RatePerAsset</t>
+  </si>
+  <si>
+    <t>minimumInsurancePremium</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
+    <t>NetPremium</t>
+  </si>
+  <si>
+    <t>First Year</t>
+  </si>
+  <si>
+    <t>clientNameselect</t>
+  </si>
+  <si>
+    <t>Select</t>
   </si>
 </sst>
 </file>
@@ -130,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,6 +195,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -161,7 +216,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -172,6 +227,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,10 +649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -602,13 +660,14 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -618,30 +677,33 @@
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -651,24 +713,26 @@
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5">
         <v>100</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -679,19 +743,20 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="3"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -702,19 +767,20 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -725,8 +791,9 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -749,7 +816,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -772,7 +839,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -795,7 +862,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -818,7 +885,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -841,7 +908,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -864,7 +931,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -887,7 +954,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -910,7 +977,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -933,7 +1000,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -956,7 +1023,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -979,7 +1046,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1368,7 +1435,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1376,12 +1443,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ijara_Karthi2/TestData/ijaraTestData.xlsx
+++ b/Ijara_Karthi2/TestData/ijaraTestData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Living_Expense" sheetId="2" r:id="rId2"/>
-    <sheet name="InsuranceInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="UnderWriter" sheetId="4" r:id="rId3"/>
+    <sheet name="AdditionalCustomerInfo" sheetId="5" r:id="rId4"/>
+    <sheet name="InsuranceInfo" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>UserName</t>
   </si>
@@ -118,13 +120,61 @@
   </si>
   <si>
     <t>Select</t>
+  </si>
+  <si>
+    <t>AT_UNW_006</t>
+  </si>
+  <si>
+    <t>AT_UNW_006_D1</t>
+  </si>
+  <si>
+    <t>AT_IDA_01</t>
+  </si>
+  <si>
+    <t>AT_IDA_01_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AADHAR </t>
+  </si>
+  <si>
+    <t>IdType</t>
+  </si>
+  <si>
+    <t>IdNumber</t>
+  </si>
+  <si>
+    <t>Karthikeyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of India </t>
+  </si>
+  <si>
+    <t>IssueingAuthority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIA </t>
+  </si>
+  <si>
+    <t>IssueCountry</t>
+  </si>
+  <si>
+    <t>IssueDate</t>
+  </si>
+  <si>
+    <t>07-Sep-2024</t>
+  </si>
+  <si>
+    <t>31-Jan-2023</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +186,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -172,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,6 +264,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -216,7 +285,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,6 +299,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -652,7 +724,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1443,10 +1515,545 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1462,6 +2069,7 @@
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">

--- a/Ijara_Karthi2/TestData/ijaraTestData.xlsx
+++ b/Ijara_Karthi2/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>UserName</t>
   </si>
@@ -143,9 +143,6 @@
     <t>IdNumber</t>
   </si>
   <si>
-    <t>Karthikeyan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Government of India </t>
   </si>
   <si>
@@ -168,13 +165,40 @@
   </si>
   <si>
     <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>AT_IDA_02</t>
+  </si>
+  <si>
+    <t>AT_IDA_02_D1</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>01-Jan-2023</t>
+  </si>
+  <si>
+    <t>17-Sep-2024</t>
+  </si>
+  <si>
+    <t>ExpectedCostOfLiving</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>MinimumCostOfLiving</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +218,12 @@
       <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -228,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,6 +307,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -285,7 +328,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -302,6 +345,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -724,7 +771,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -737,6 +784,8 @@
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -768,8 +817,12 @@
         <v>14</v>
       </c>
       <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -803,10 +856,14 @@
       <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="18"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -827,10 +884,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -851,10 +908,10 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -875,10 +932,10 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -898,10 +955,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -921,10 +978,10 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -944,10 +1001,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -967,10 +1024,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -990,10 +1047,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1013,10 +1070,10 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1036,10 +1093,10 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1059,10 +1116,10 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1082,10 +1139,10 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1105,10 +1162,10 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1128,10 +1185,10 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1151,10 +1208,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1174,10 +1231,10 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1197,10 +1254,10 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1220,10 +1277,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1243,10 +1300,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1266,10 +1323,10 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1289,10 +1346,10 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1312,10 +1369,10 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1331,9 +1388,9 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -1349,9 +1406,9 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -1367,9 +1424,9 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -1510,6 +1567,7 @@
     <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1564,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1597,16 +1655,16 @@
         <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="10"/>
     </row>
@@ -1623,20 +1681,20 @@
       <c r="D2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5">
+        <v>987654</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="5"/>
@@ -1647,15 +1705,33 @@
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="5">
+        <v>123456</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="J3" s="13"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2052,16 +2128,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
@@ -2082,7 +2157,7 @@
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -2133,10 +2208,10 @@
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="19">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="5">
@@ -2166,7 +2241,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2187,5 +2262,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>